--- a/Separa unidades/Unidades/Ibirapuera.xlsx
+++ b/Separa unidades/Unidades/Ibirapuera.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Ibirapuera" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Código</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Situação</t>
   </si>
   <si>
-    <t>CNES</t>
-  </si>
-  <si>
     <t>Unidade</t>
   </si>
   <si>
@@ -91,22 +88,7 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>ALMIR FRANCISCO GONCALVES PEREIRA</t>
-  </si>
-  <si>
-    <t>CAROLINE SOARES DE SOUZA</t>
-  </si>
-  <si>
-    <t>FERNANDO APARECIDO DOS SANTOS SOBRINHO</t>
-  </si>
-  <si>
-    <t>MATEUS JUNIOR JUSTINO</t>
-  </si>
-  <si>
-    <t>ALICE MIZIARA DINIZ NICOLIELO CONFETTI</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>NILDA LOPES PESTANA</t>
   </si>
   <si>
     <t>F</t>
@@ -127,73 +109,22 @@
     <t>BARRETOS - SP</t>
   </si>
   <si>
-    <t>AVENIDA</t>
-  </si>
-  <si>
     <t>RUA</t>
   </si>
   <si>
-    <t>JUNDIAI</t>
-  </si>
-  <si>
-    <t>CAMPINAS</t>
-  </si>
-  <si>
-    <t>RODRIGUES ALVES</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15 DE NOVEMBRO</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>3047</t>
-  </si>
-  <si>
-    <t>257</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4140</t>
   </si>
   <si>
     <t>IBIRAPUERA</t>
   </si>
   <si>
-    <t>PEREIRA</t>
-  </si>
-  <si>
-    <t>3323-3637</t>
-  </si>
-  <si>
-    <t>3323-1170</t>
-  </si>
-  <si>
-    <t>3323-8769</t>
-  </si>
-  <si>
-    <t>3325-8444</t>
-  </si>
-  <si>
-    <t>99118-0520</t>
-  </si>
-  <si>
-    <t>98108-9546</t>
-  </si>
-  <si>
-    <t>99756-7559</t>
-  </si>
-  <si>
-    <t>9209-5844</t>
-  </si>
-  <si>
-    <t>9925-8444</t>
+    <t>9231-4055</t>
+  </si>
+  <si>
+    <t>98132-2521</t>
   </si>
 </sst>
 </file>
@@ -555,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,363 +565,73 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>545268</v>
+      </c>
+      <c r="B2">
+        <v>70034</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>419517</v>
-      </c>
-      <c r="B2">
-        <v>3901</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>32172683850</v>
+      </c>
+      <c r="E2">
+        <v>702308173326914</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30592</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>7142279869</v>
-      </c>
-      <c r="E2">
-        <v>702402559553128</v>
-      </c>
-      <c r="F2" s="2">
-        <v>22404</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44389</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44389</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2">
-        <v>44305</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44305</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="O2">
-        <v>2048744</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="U2">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>486118</v>
-      </c>
-      <c r="B3">
-        <v>15563</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>41667547852</v>
-      </c>
-      <c r="E3">
-        <v>201011093980002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>33840</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44324</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44333</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44333</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>2048744</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
-        <v>245790</v>
-      </c>
-      <c r="B4">
-        <v>29857</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>47511708803</v>
-      </c>
-      <c r="E4">
-        <v>200772022810003</v>
-      </c>
-      <c r="F4" s="2">
-        <v>35754</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44168</v>
-      </c>
-      <c r="L4" s="2">
-        <v>44168</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>2048744</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
-        <v>419444</v>
-      </c>
-      <c r="B5">
-        <v>65886</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>39944870803</v>
-      </c>
-      <c r="E5">
-        <v>203480019880018</v>
-      </c>
-      <c r="F5" s="2">
-        <v>34129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44305</v>
-      </c>
-      <c r="L5" s="2">
-        <v>44305</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>2048744</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5">
-        <v>17</v>
-      </c>
-      <c r="W5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
-        <v>412343</v>
-      </c>
-      <c r="B6">
-        <v>228273</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>48642390883</v>
-      </c>
-      <c r="E6">
-        <v>898004175330218</v>
-      </c>
-      <c r="F6" s="2">
-        <v>41823</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
-        <v>44299</v>
-      </c>
-      <c r="L6" s="2">
-        <v>44299</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>2048744</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6">
-        <v>17</v>
-      </c>
-      <c r="W6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
